--- a/dbc/CAN_VARIANT/Comfort.xlsx
+++ b/dbc/CAN_VARIANT/Comfort.xlsx
@@ -461,7 +461,7 @@
     <t>ENUM</t>
   </si>
   <si>
-    <t>No,Yes</t>
+    <t>"No","Yes"</t>
   </si>
   <si>
     <t>BA_DEF_DEF_</t>
@@ -488,7 +488,7 @@
     <t>GenEnvControlType</t>
   </si>
   <si>
-    <t>NoControl,SliderHoriz,SliderVert,PushButton,Edit,BitmapSwitch</t>
+    <t>"NoControl","SliderHoriz","SliderVert","PushButton","Edit","BitmapSwitch"</t>
   </si>
   <si>
     <t>GenEnvAutoGenCtrl</t>
@@ -536,7 +536,7 @@
     <t>ILUsed</t>
   </si>
   <si>
-    <t>Yes,No</t>
+    <t>"Yes","No"</t>
   </si>
   <si>
     <t>Yes</t>
@@ -554,7 +554,7 @@
     <t>NmNode</t>
   </si>
   <si>
-    <t>no,yes</t>
+    <t>"no","yes"</t>
   </si>
   <si>
     <t>no</t>
@@ -614,7 +614,7 @@
     <t>GenMsgSendType</t>
   </si>
   <si>
-    <t>Cyclic,not_used,not_used,not_used,not_used,Cyclic,not_used,IfActive</t>
+    <t>"Cyclic","not_used","not_used","not_used","not_used","Cyclic","not_used","IfActive"</t>
   </si>
   <si>
     <t>not_used</t>
@@ -665,7 +665,7 @@
     <t>GenSigSendType</t>
   </si>
   <si>
-    <t>Cyclic,OnWrite,OnWriteWithRepetition,OnChange,OnChangeWithRepetition,IfActive,IfActiveWithRepetition</t>
+    <t>"Cyclic","OnWrite","OnWriteWithRepetition","OnChange","OnChangeWithRepetition","IfActive","IfActiveWithRepetition"</t>
   </si>
   <si>
     <t>Cyclic</t>
@@ -716,7 +716,7 @@
     <t>GenSigEnvVarType</t>
   </si>
   <si>
-    <t>int,float,undef</t>
+    <t>"int","float","undef"</t>
   </si>
   <si>
     <t>undef</t>

--- a/dbc/CAN_VARIANT/Comfort.xlsx
+++ b/dbc/CAN_VARIANT/Comfort.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="318">
   <si>
     <t>Result</t>
   </si>
@@ -7706,11 +7706,11 @@
       <c r="C16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1000000</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
